--- a/Game/Config/StartConfig/Localhost/start_scenes.xlsx
+++ b/Game/Config/StartConfig/Localhost/start_scenes.xlsx
@@ -87,7 +87,7 @@
     <t>HTTP</t>
   </si>
   <si>
-    <t>DBCache</t>
+    <t>DBProxy</t>
   </si>
   <si>
     <t>Game</t>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
